--- a/biology/Médecine/Anne-Denise_Moneret-Vautrin/Anne-Denise_Moneret-Vautrin.xlsx
+++ b/biology/Médecine/Anne-Denise_Moneret-Vautrin/Anne-Denise_Moneret-Vautrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne-Denise Moneret-Vautrin, née le 8 décembre 1939 à Saint-Mihiel et morte le 27 mars 2016 à Nancy, est une médecin et chercheuse française, membre de l’Académie nationale de médecine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Denise Vautrin est la fille de Raymond Vautrin, professeur de dessin industriel, et de Madeleine Boulanger, professeure agrégé de sciences naturelles. Elle aurait manifesté son intention de devenir médecin dès l'âge de 5 ans et demi. Cette vocation ne l'a depuis jamais quittée[réf. nécessaire].
 Aînée d'une fratrie de 5 enfants, elle grandit sous la garde de sa mère très occupée (agrégation en 1942 puis enseignement au lycée Jeanne d'Arc de Nancy) en l’absence de son père prisonnier de guerre (1940-1945). Elle passe une partie de son enfance confiée aux bons soins de Monsieur et Madame Neugues, intendants du Château de la Motte Tilly dans l'Aube, à quelques kilomètres de la maison familiale, et l'autre partie, aux bons soins de Madame Lefèvre à Nancy.
@@ -519,7 +533,7 @@
 Développant une grande passion pour la lecture dès l'âge de 6 ans, elle aurait lu des milliers d'ouvrages dans sa jeunesse, refuge intime dans un environnement familial d'une grande sévérité et d'une grande rigueur où le savoir, le travail et la peine étaient les valeurs essentielles. A 9 ans, la lecture du livre La vie de Louis Pasteur (Henri Drouin, 1928) l'aurait décidée, en plus de devenir médecin, de « travailler dans un laboratoire ».
 Après son baccalauréat sciences expérimentales (Mention TB) elle s'oriente vers des études de médecine. La faculté de médecine de l'Université Nancy I-Henri Poincaré est choisie du fait de la proximité familiale côté paternel (hébergement proche de son oncle André Vautrin, personnalité Maxevilloise en Meurthe-et-Moselle).
 Mariée en 1969 avec André Moneret (ingénieur des ponts et chaussées), elle décide, après leur séparation en 1993, de garder son nom d'usage Moneret-Vautrin. Elle a eu 3 enfants et 7 petits-enfants.
-Elle est férue d'archéologie, de paléontologie, de philosophie, de musique classique et d'opéra et pratique sports de montagne et randonnées. Elle s'est aussi essayée à la poésie, rédigeant de nombreux poèmes, et à l’écriture de deux romans. (Voir l'In memoriam d'Etienne Baudouin) [1],[2].
+Elle est férue d'archéologie, de paléontologie, de philosophie, de musique classique et d'opéra et pratique sports de montagne et randonnées. Elle s'est aussi essayée à la poésie, rédigeant de nombreux poèmes, et à l’écriture de deux romans. (Voir l'In memoriam d'Etienne Baudouin) ,.
 </t>
         </is>
       </c>
@@ -548,14 +562,16 @@
           <t>Diplômes et carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moniteur d'Embryologie 1960 (Prix d'Externat), Internat des Hôpitaux de Nancy 1963 (Prix d'Internat), Doctorat de Médecine 1967 (Prix de Thèse P.L. DROUET), Chef de Clinique - Assistant (1968), Certificat d’Études spéciales de Gastro-entérologie (1969), Certificat d’Études spéciales d'Immunologie générale et appliquée (1970), Certificat d’Études spéciales et de Médecine interne (1971), Agrégation de Médecine interne, Professeur d'université (1976), Chef de Service de Médecine interne, Allergologie et Immunologie clinique (1990)[1].
-Carrière : Professeur agrégée (1976) puis Professeur émérite à la Faculté de Médecine de Nancy, Chef de Service de médecine interne, immunologie clinique et allergologie au Centre hospitalier universitaire (CHU) de Nancy (1990-2006)[3], Expert en médecine interne et immuno-allergologie (1985)[4], Membre du Comité d'experts spécialisés (en nutrition humaine) à l'Agence française de sécurité sanitaire des aliments (2000), Président (1993) puis Président d'honneur du Cercle d'Investigations Cliniques et Biologiques en Allergie Alimentaire (CICBAA), Président du réseau d'allergo-vigilance (depuis 2001)[5],[6]; Membre (depuis 1967) de la Société française d'allergologie, Membre de la Société française d'immunologie, de l'Académie européenne d'allergologie et d'immunologie clinique (depuis 1974), de l'Académie américaine d'allergologie (1975), de la Société française de Médecine interne (depuis 1976), du Collège international d'allergologie (depuis 1994), Vice-président du Syndicat national des allergologues français (1997), Membre correspondant (2002-10), Membre titulaire[7] (depuis 2010) de l'Académie nationale de médecine[8],[9], Membre d'honneur de la Société suisse d'immunologie clinique et d'allergologie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moniteur d'Embryologie 1960 (Prix d'Externat), Internat des Hôpitaux de Nancy 1963 (Prix d'Internat), Doctorat de Médecine 1967 (Prix de Thèse P.L. DROUET), Chef de Clinique - Assistant (1968), Certificat d’Études spéciales de Gastro-entérologie (1969), Certificat d’Études spéciales d'Immunologie générale et appliquée (1970), Certificat d’Études spéciales et de Médecine interne (1971), Agrégation de Médecine interne, Professeur d'université (1976), Chef de Service de Médecine interne, Allergologie et Immunologie clinique (1990).
+Carrière : Professeur agrégée (1976) puis Professeur émérite à la Faculté de Médecine de Nancy, Chef de Service de médecine interne, immunologie clinique et allergologie au Centre hospitalier universitaire (CHU) de Nancy (1990-2006), Expert en médecine interne et immuno-allergologie (1985), Membre du Comité d'experts spécialisés (en nutrition humaine) à l'Agence française de sécurité sanitaire des aliments (2000), Président (1993) puis Président d'honneur du Cercle d'Investigations Cliniques et Biologiques en Allergie Alimentaire (CICBAA), Président du réseau d'allergo-vigilance (depuis 2001),; Membre (depuis 1967) de la Société française d'allergologie, Membre de la Société française d'immunologie, de l'Académie européenne d'allergologie et d'immunologie clinique (depuis 1974), de l'Académie américaine d'allergologie (1975), de la Société française de Médecine interne (depuis 1976), du Collège international d'allergologie (depuis 1994), Vice-président du Syndicat national des allergologues français (1997), Membre correspondant (2002-10), Membre titulaire (depuis 2010) de l'Académie nationale de médecine Membre d'honneur de la Société suisse d'immunologie clinique et d'allergologie.
 Selon la formule consacrée, atteinte par la limite d'âge en 2004, elle poursuivait toutes ses activités hospitalo-universitaires comme consultante jusqu'à la fin de l'année universitaire 2009. Mais ne pouvant se résoudre alors à quitter toutes ses fonctions, elle décide de poursuivre ses activités hospitalières au centre hospitalier d’Épinal et ses activités de recherche à Genclis jusqu'à la fin.
-Œuvres et travaux : Plusieurs centaines de publications [10],[11],[12],[13],[14](1961-2015) et 6 ouvrages spécialisés.
+Œuvres et travaux : Plusieurs centaines de publications (1961-2015) et 6 ouvrages spécialisés.
 Conférencière invitée aux Congrès internationaux ICACI (International Congress of Allergology and Clinical Immunology), de l'EAACI (European Academy of Allergy and Clinical Immunology) de l'AAAAI (American Academy of Allergy, Asthma &amp; Immunology)et de dizaine d'autres congrès de par le monde.
-Elle était devenue une référence internationale de sa spécialité, les allergies alimentaires[15],[16],[17].
+Elle était devenue une référence internationale de sa spécialité, les allergies alimentaires.
 </t>
         </is>
       </c>
@@ -585,6 +601,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,12 +628,14 @@
           <t>Associations et structures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Création du CICBAA en 1993 [18]
-Création du réseau Allergovigilance 2001 [19]
-Création du Réseau Hospitalier Lorraine-Champagne-Ardennes : ALLERGO-LOR (2002)[20]
-Organisation des Symposiums nationaux du CICBAA[21] 2001, 2003, 2005, 2007, 2009.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Création du CICBAA en 1993 
+Création du réseau Allergovigilance 2001 
+Création du Réseau Hospitalier Lorraine-Champagne-Ardennes : ALLERGO-LOR (2002)
+Organisation des Symposiums nationaux du CICBAA 2001, 2003, 2005, 2007, 2009.
 </t>
         </is>
       </c>
@@ -644,11 +664,13 @@
           <t>Activité éditoriale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait partie des comités de lecture des revues : J Allergy and Clinical Immunology(USA), Clinical and experimental Allergy (UK), Allergy (EU), International archive of allergy and clinical immunology (EU), J invest. Allergol clin immunol, Revue francaise d'allergologie et immunologie clinique (Fr).
 En 1996, elle crée la revue bimestrielle "Alim'inter" et participe de façon permanente au comité de rédaction.
-En 1998, elle crée le site internet du CICBAA[22] (Label HON[23] en 2008)
+En 1998, elle crée le site internet du CICBAA (Label HON en 2008)
 </t>
         </is>
       </c>
@@ -677,15 +699,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix DEXO d'allergologie (1973)
 Prix de l’Académie de Médecine Jules Renault (1983)
 Médaille  d'argent au titre du Service de l’hygiène et des maladies contagieuses (1992)
 Prix recherche clinique, Institut Électricité Santé (1996)
-Clemens von Pirquet Award (2015)[24]
-Chevalier de la Légion d'honneur (2008)[25]
-Ordre national du Mérite, officier (2012)[26]</t>
+Clemens von Pirquet Award (2015)
+Chevalier de la Légion d'honneur (2008)
+Ordre national du Mérite, officier (2012)</t>
         </is>
       </c>
     </row>
@@ -713,7 +737,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Aubert, Moneret-Vautrin, Le Risque de sensibilisation aux colorants alimentaires et pharmaceutiques, Masson, 1978.
 Gazel, Moneret-Vautrin, Pathologie de la vasomotricité nasale, Sandoz, 1982.
@@ -748,7 +774,9 @@
           <t>Participation à Ouvrages</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Allergic Reactions to Anaesthetics.Clinical and Basic Aspects, Assem, E.S.K. (London), 1992.
 Infant Nutrition: Issues In Nutrition and Toxicology Vol.2, London: Chapman &amp; Hall, 1994.
